--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBBD39C-8F4B-4441-AA6E-354B45A3D584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2943AC-111C-4CA7-971E-3C098E5A75CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{8238CC19-5C58-4680-92E0-526DD4D78218}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8238CC19-5C58-4680-92E0-526DD4D78218}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB346702-02DD-4E96-B0C3-B680F054E789}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>460</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>3419631.72</v>
+        <v>4044086.2080000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>3470397.72</v>
+        <v>4094852.2080000001</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0E64C4-4E59-4C6E-9629-E824C7D3CAE2}">
   <dimension ref="A1:DS39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="W24" s="7">
         <f>W23/Sheet1!D2-1</f>
-        <v>-9.5645103551193267E-2</v>
+        <v>-0.23528813903225909</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2943AC-111C-4CA7-971E-3C098E5A75CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D5534-6963-4D0B-9906-EFB4FF90D7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8238CC19-5C58-4680-92E0-526DD4D78218}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{8238CC19-5C58-4680-92E0-526DD4D78218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -184,13 +181,16 @@
   </si>
   <si>
     <t>Service Growth</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,17 +199,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,22 +237,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -264,15 +275,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -314,15 +325,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -682,82 +693,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB346702-02DD-4E96-B0C3-B680F054E789}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+      <c r="I3" s="4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="9" t="s">
+      <c r="I4" s="1">
+        <v>7433.982</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>7433.982</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="9" t="s">
+      <c r="I5" s="1">
+        <f>I4*I3</f>
+        <v>4044086.2080000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <f>D3*D2</f>
-        <v>4044086.2080000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="I6" s="1">
         <f>17482+54073</f>
         <v>71555</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
         <f>39722+24389+2537+2513+17254+35906</f>
         <v>122321</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="9" t="s">
+      <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <f>D4+D6-D5</f>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <f>I5+I7-I6</f>
         <v>4094852.2080000001</v>
       </c>
     </row>
@@ -768,1984 +779,1993 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0E64C4-4E59-4C6E-9629-E824C7D3CAE2}">
-  <dimension ref="A1:DS39"/>
+  <dimension ref="A1:DT40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="22" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="123" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="8" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="23" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="124" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="2">
+      <c r="L2" s="5">
         <v>2020</v>
       </c>
-      <c r="L1" s="2">
-        <f>K1+1</f>
+      <c r="M2" s="5">
+        <f>L2+1</f>
         <v>2021</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" ref="M1:T1" si="0">L1+1</f>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:U2" si="0">M2+1</f>
         <v>2022</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O2" s="5">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P2" s="5">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q2" s="5">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R2" s="5">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S2" s="5">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T2" s="5">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U2" s="5">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1">
         <v>72732</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O3" s="1">
         <v>64699</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P3" s="1">
         <v>64773</v>
       </c>
-      <c r="P2" s="1">
-        <f>AVERAGE(M2:O2)</f>
+      <c r="Q3" s="1">
+        <f>AVERAGE(N3:P3)</f>
         <v>67401.333333333328</v>
       </c>
-      <c r="Q2" s="1">
-        <f>P2*1.05</f>
+      <c r="R3" s="1">
+        <f>Q3*1.05</f>
         <v>70771.399999999994</v>
       </c>
-      <c r="R2" s="1">
-        <f t="shared" ref="R2:T2" si="1">Q2*1.05</f>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:U3" si="1">R3*1.05</f>
         <v>74309.97</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T3" s="1">
         <f t="shared" si="1"/>
         <v>78025.468500000003</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U3" s="1">
         <f t="shared" si="1"/>
         <v>81926.741925000009</v>
       </c>
     </row>
-    <row r="3" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
         <v>125538</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O4" s="1">
         <v>147216</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P4" s="1">
         <v>180349</v>
       </c>
-      <c r="P3" s="1">
-        <f>O3*1.25</f>
+      <c r="Q4" s="1">
+        <f>P4*1.25</f>
         <v>225436.25</v>
       </c>
-      <c r="Q3" s="1">
-        <f t="shared" ref="Q3:T3" si="2">P3*1.25</f>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:U4" si="2">Q4*1.25</f>
         <v>281795.3125</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S4" s="1">
         <f t="shared" si="2"/>
         <v>352244.140625</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T4" s="1">
         <f t="shared" si="2"/>
         <v>440305.17578125</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U4" s="1">
         <f t="shared" si="2"/>
         <v>550381.4697265625</v>
       </c>
     </row>
-    <row r="4" spans="1:117" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="3">
-        <f>SUM(M2:M3)</f>
+    <row r="5" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="6">
+        <f>SUM(N3:N4)</f>
         <v>198270</v>
       </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:T4" si="3">SUM(N2:N3)</f>
+      <c r="O5" s="6">
+        <f t="shared" ref="O5:U5" si="3">SUM(O3:O4)</f>
         <v>211915</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P5" s="6">
         <f t="shared" si="3"/>
         <v>245122</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q5" s="6">
         <f t="shared" si="3"/>
         <v>292837.58333333331</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R5" s="6">
         <f t="shared" si="3"/>
         <v>352566.71250000002</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S5" s="6">
         <f t="shared" si="3"/>
         <v>426554.11062499997</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T5" s="6">
         <f t="shared" si="3"/>
         <v>518330.64428125002</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U5" s="6">
         <f t="shared" si="3"/>
         <v>632308.21165156248</v>
       </c>
     </row>
-    <row r="5" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1">
         <v>19064</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O6" s="1">
         <v>17804</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P6" s="1">
         <v>15272</v>
       </c>
-      <c r="P5" s="1">
-        <f>P2*(1-P26)</f>
+      <c r="Q6" s="1">
+        <f>Q3*(1-Q27)</f>
         <v>15634.153052352063</v>
       </c>
-      <c r="Q5" s="1">
-        <f t="shared" ref="Q5:T5" si="4">Q2*(1-Q26)</f>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:U6" si="4">R3*(1-R27)</f>
         <v>16144.083008494525</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S6" s="1">
         <f t="shared" si="4"/>
         <v>16664.493744713855</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T6" s="1">
         <f t="shared" si="4"/>
         <v>17195.079681609299</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U6" s="1">
         <f t="shared" si="4"/>
         <v>17735.474124393215</v>
       </c>
     </row>
-    <row r="6" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="1">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1">
         <v>43586</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O7" s="1">
         <v>48059</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P7" s="1">
         <v>58842</v>
       </c>
-      <c r="P6" s="1">
-        <f>P3*(1-P27)</f>
+      <c r="Q7" s="1">
+        <f>Q4*(1-Q28)</f>
         <v>72793.081250000032</v>
       </c>
-      <c r="Q6" s="1">
-        <f t="shared" ref="Q6:T6" si="5">Q3*(1-Q27)</f>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7:U7" si="5">R4*(1-R28)</f>
         <v>90037.331757812557</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S7" s="1">
         <f t="shared" si="5"/>
         <v>111348.17731762705</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="5"/>
         <v>137679.62187636274</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="5"/>
         <v>170208.11763354792</v>
       </c>
     </row>
-    <row r="7" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="1">
-        <f>M4-SUM(M5:M6)</f>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <f>N5-SUM(N6:N7)</f>
         <v>135620</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" ref="N7:O7" si="6">N4-SUM(N5:N6)</f>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:P8" si="6">O5-SUM(O6:O7)</f>
         <v>146052</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="6"/>
         <v>171008</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" ref="P7" si="7">P4-SUM(P5:P6)</f>
+      <c r="Q8" s="1">
+        <f t="shared" ref="Q8" si="7">Q5-SUM(Q6:Q7)</f>
         <v>204410.34903098122</v>
       </c>
-      <c r="Q7" s="1">
-        <f t="shared" ref="Q7" si="8">Q4-SUM(Q5:Q6)</f>
+      <c r="R8" s="1">
+        <f t="shared" ref="R8" si="8">R5-SUM(R6:R7)</f>
         <v>246385.29773369295</v>
       </c>
-      <c r="R7" s="1">
-        <f t="shared" ref="R7" si="9">R4-SUM(R5:R6)</f>
+      <c r="S8" s="1">
+        <f t="shared" ref="S8" si="9">S5-SUM(S6:S7)</f>
         <v>298541.43956265907</v>
       </c>
-      <c r="S7" s="1">
-        <f t="shared" ref="S7" si="10">S4-SUM(S5:S6)</f>
+      <c r="T8" s="1">
+        <f t="shared" ref="T8" si="10">T5-SUM(T6:T7)</f>
         <v>363455.94272327796</v>
       </c>
-      <c r="T7" s="1">
-        <f t="shared" ref="T7" si="11">T4-SUM(T5:T6)</f>
+      <c r="U8" s="1">
+        <f t="shared" ref="U8" si="11">U5-SUM(U6:U7)</f>
         <v>444364.6198936213</v>
       </c>
     </row>
-    <row r="8" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="1">
+        <v>24512</v>
+      </c>
+      <c r="O9" s="1">
+        <v>27195</v>
+      </c>
+      <c r="P9" s="1">
+        <v>29510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="1">
-        <v>24512</v>
-      </c>
-      <c r="N8" s="1">
-        <v>27195</v>
-      </c>
-      <c r="O8" s="1">
-        <v>29510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="N10" s="1">
+        <v>21825</v>
+      </c>
+      <c r="O10" s="1">
+        <v>22759</v>
+      </c>
+      <c r="P10" s="1">
+        <v>24456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="1">
-        <v>21825</v>
-      </c>
-      <c r="N9" s="1">
-        <v>22759</v>
-      </c>
-      <c r="O9" s="1">
-        <v>24456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="N11" s="1">
+        <v>5900</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7575</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="1">
-        <v>5900</v>
-      </c>
-      <c r="N10" s="1">
-        <v>7575</v>
-      </c>
-      <c r="O10" s="1">
-        <v>7609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="1">
-        <f>SUM(M8:M10)</f>
+      <c r="N12" s="1">
+        <f>SUM(N9:N11)</f>
         <v>52237</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" ref="N11:O11" si="12">SUM(N8:N10)</f>
+      <c r="O12" s="1">
+        <f t="shared" ref="O12:P12" si="12">SUM(O9:O11)</f>
         <v>57529</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P12" s="1">
         <f t="shared" si="12"/>
         <v>61575</v>
       </c>
-      <c r="P11" s="1">
-        <f>O11*(1+P20)</f>
+      <c r="Q12" s="1">
+        <f>P12*(1+Q21)</f>
         <v>73561.223365303798</v>
       </c>
-      <c r="Q11" s="1">
-        <f t="shared" ref="Q11:T11" si="13">P11*(1+Q20)</f>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12:U12" si="13">Q12*(1+R21)</f>
         <v>88565.266774045158</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S12" s="1">
         <f t="shared" si="13"/>
         <v>107151.0079133426</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T12" s="1">
         <f t="shared" si="13"/>
         <v>130205.40555975375</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U12" s="1">
         <f t="shared" si="13"/>
         <v>158836.73490117144</v>
       </c>
     </row>
-    <row r="12" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="1">
-        <f>M7-M11</f>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="1">
+        <f>N8-N12</f>
         <v>83383</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" ref="N12:T12" si="14">N7-N11</f>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13:U13" si="14">O8-O12</f>
         <v>88523</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="14"/>
         <v>109433</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="14"/>
         <v>130849.12566567742</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="14"/>
         <v>157820.03095964779</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S13" s="1">
         <f t="shared" si="14"/>
         <v>191390.43164931645</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="14"/>
         <v>233250.53716352419</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="14"/>
         <v>285527.88499244989</v>
       </c>
     </row>
-    <row r="13" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="1">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="1">
         <v>333</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O14" s="1">
         <v>788</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P14" s="1">
         <v>-1646</v>
       </c>
-      <c r="P13" s="1">
-        <f>SUM(F13:I13)</f>
+      <c r="Q14" s="1">
+        <f>SUM(G14:J14)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
-        <f>P35*$W$19</f>
+      <c r="R14" s="1">
+        <f>Q36*$X$20</f>
         <v>-2030.64</v>
       </c>
-      <c r="R13" s="1">
-        <f>Q35*$W$19</f>
+      <c r="S14" s="1">
+        <f>R36*$X$20</f>
         <v>3016.9362670925875</v>
       </c>
-      <c r="S13" s="1">
-        <f>R35*$W$19</f>
+      <c r="T14" s="1">
+        <f>S36*$X$20</f>
         <v>9315.734987584241</v>
       </c>
-      <c r="T13" s="1">
-        <f>S35*$W$19</f>
+      <c r="U14" s="1">
+        <f>T36*$X$20</f>
         <v>17174.882205280155</v>
       </c>
     </row>
-    <row r="14" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="1">
-        <f>M12+M13</f>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="1">
+        <f>N13+N14</f>
         <v>83716</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" ref="N14:T14" si="15">N12+N13</f>
+      <c r="O15" s="1">
+        <f t="shared" ref="O15:U15" si="15">O13+O14</f>
         <v>89311</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="15"/>
         <v>107787</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="15"/>
         <v>130849.12566567742</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="15"/>
         <v>155789.39095964778</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S15" s="1">
         <f t="shared" si="15"/>
         <v>194407.36791640904</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T15" s="1">
         <f t="shared" si="15"/>
         <v>242566.27215110842</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="15"/>
         <v>302702.76719773002</v>
       </c>
     </row>
-    <row r="15" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="1">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="1">
         <v>10978</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O16" s="1">
         <v>16950</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P16" s="1">
         <v>19651</v>
       </c>
-      <c r="P15" s="1">
-        <f>P14*P23</f>
+      <c r="Q16" s="1">
+        <f>Q15*Q24</f>
         <v>24861.333876478711</v>
       </c>
-      <c r="Q15" s="1">
-        <f t="shared" ref="Q15:T15" si="16">Q14*Q23</f>
+      <c r="R16" s="1">
+        <f t="shared" ref="R16:U16" si="16">R15*R24</f>
         <v>29599.984282333076</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S16" s="1">
         <f t="shared" si="16"/>
         <v>36937.399904117716</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T16" s="1">
         <f t="shared" si="16"/>
         <v>46087.591708710599</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="16"/>
         <v>57513.525767568703</v>
       </c>
     </row>
-    <row r="16" spans="1:117" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="3">
-        <f>M14-M15</f>
+    <row r="17" spans="2:118" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="6">
+        <f>N15-N16</f>
         <v>72738</v>
       </c>
-      <c r="N16" s="3">
-        <f t="shared" ref="N16:T16" si="17">N14-N15</f>
+      <c r="O17" s="6">
+        <f t="shared" ref="O17:U17" si="17">O15-O16</f>
         <v>72361</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P17" s="6">
         <f t="shared" si="17"/>
         <v>88136</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q17" s="6">
         <f t="shared" si="17"/>
         <v>105987.7917891987</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R17" s="6">
         <f t="shared" si="17"/>
         <v>126189.40667731469</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S17" s="6">
         <f t="shared" si="17"/>
         <v>157469.96801229133</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T17" s="6">
         <f t="shared" si="17"/>
         <v>196478.68044239783</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U17" s="6">
         <f t="shared" si="17"/>
         <v>245189.24143016132</v>
       </c>
-      <c r="U16" s="3">
-        <f t="shared" ref="U16:AZ16" si="18">T16*(1+$W$20)</f>
+      <c r="V17" s="6">
+        <f t="shared" ref="V17:BA17" si="18">U17*(1+$X$21)</f>
         <v>250093.02625876456</v>
       </c>
-      <c r="V16" s="3">
+      <c r="W17" s="6">
         <f t="shared" si="18"/>
         <v>255094.88678393984</v>
       </c>
-      <c r="W16" s="3">
+      <c r="X17" s="6">
         <f t="shared" si="18"/>
         <v>260196.78451961864</v>
       </c>
-      <c r="X16" s="3">
+      <c r="Y17" s="6">
         <f t="shared" si="18"/>
         <v>265400.720210011</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Z17" s="6">
         <f t="shared" si="18"/>
         <v>270708.73461421125</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AA17" s="6">
         <f t="shared" si="18"/>
         <v>276122.90930649551</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AB17" s="6">
         <f t="shared" si="18"/>
         <v>281645.36749262543</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AC17" s="6">
         <f t="shared" si="18"/>
         <v>287278.27484247793</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AD17" s="6">
         <f t="shared" si="18"/>
         <v>293023.84033932746</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AE17" s="6">
         <f t="shared" si="18"/>
         <v>298884.31714611402</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AF17" s="6">
         <f t="shared" si="18"/>
         <v>304862.00348903629</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AG17" s="6">
         <f t="shared" si="18"/>
         <v>310959.24355881702</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AH17" s="6">
         <f t="shared" si="18"/>
         <v>317178.42842999339</v>
       </c>
-      <c r="AH16" s="3">
+      <c r="AI17" s="6">
         <f t="shared" si="18"/>
         <v>323521.99699859327</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AJ17" s="6">
         <f t="shared" si="18"/>
         <v>329992.43693856517</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AK17" s="6">
         <f t="shared" si="18"/>
         <v>336592.28567733645</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AL17" s="6">
         <f t="shared" si="18"/>
         <v>343324.13139088318</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AM17" s="6">
         <f t="shared" si="18"/>
         <v>350190.61401870084</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AN17" s="6">
         <f t="shared" si="18"/>
         <v>357194.42629907484</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AO17" s="6">
         <f t="shared" si="18"/>
         <v>364338.31482505635</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AP17" s="6">
         <f t="shared" si="18"/>
         <v>371625.08112155751</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AQ17" s="6">
         <f t="shared" si="18"/>
         <v>379057.58274398866</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AR17" s="6">
         <f t="shared" si="18"/>
         <v>386638.73439886846</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AS17" s="6">
         <f t="shared" si="18"/>
         <v>394371.50908684585</v>
       </c>
-      <c r="AS16" s="3">
+      <c r="AT17" s="6">
         <f t="shared" si="18"/>
         <v>402258.93926858279</v>
       </c>
-      <c r="AT16" s="3">
+      <c r="AU17" s="6">
         <f t="shared" si="18"/>
         <v>410304.11805395444</v>
       </c>
-      <c r="AU16" s="3">
+      <c r="AV17" s="6">
         <f t="shared" si="18"/>
         <v>418510.20041503356</v>
       </c>
-      <c r="AV16" s="3">
+      <c r="AW17" s="6">
         <f t="shared" si="18"/>
         <v>426880.40442333423</v>
       </c>
-      <c r="AW16" s="3">
+      <c r="AX17" s="6">
         <f t="shared" si="18"/>
         <v>435418.01251180092</v>
       </c>
-      <c r="AX16" s="3">
+      <c r="AY17" s="6">
         <f t="shared" si="18"/>
         <v>444126.37276203692</v>
       </c>
-      <c r="AY16" s="3">
+      <c r="AZ17" s="6">
         <f t="shared" si="18"/>
         <v>453008.90021727764</v>
       </c>
-      <c r="AZ16" s="3">
+      <c r="BA17" s="6">
         <f t="shared" si="18"/>
         <v>462069.0782216232</v>
       </c>
-      <c r="BA16" s="3">
-        <f t="shared" ref="BA16:CF16" si="19">AZ16*(1+$W$20)</f>
+      <c r="BB17" s="6">
+        <f t="shared" ref="BB17:CG17" si="19">BA17*(1+$X$21)</f>
         <v>471310.45978605567</v>
       </c>
-      <c r="BB16" s="3">
+      <c r="BC17" s="6">
         <f t="shared" si="19"/>
         <v>480736.66898177681</v>
       </c>
-      <c r="BC16" s="3">
+      <c r="BD17" s="6">
         <f t="shared" si="19"/>
         <v>490351.40236141236</v>
       </c>
-      <c r="BD16" s="3">
+      <c r="BE17" s="6">
         <f t="shared" si="19"/>
         <v>500158.43040864059</v>
       </c>
-      <c r="BE16" s="3">
+      <c r="BF17" s="6">
         <f t="shared" si="19"/>
         <v>510161.59901681339</v>
       </c>
-      <c r="BF16" s="3">
+      <c r="BG17" s="6">
         <f t="shared" si="19"/>
         <v>520364.83099714963</v>
       </c>
-      <c r="BG16" s="3">
+      <c r="BH17" s="6">
         <f t="shared" si="19"/>
         <v>530772.12761709269</v>
       </c>
-      <c r="BH16" s="3">
+      <c r="BI17" s="6">
         <f t="shared" si="19"/>
         <v>541387.57016943453</v>
       </c>
-      <c r="BI16" s="3">
+      <c r="BJ17" s="6">
         <f t="shared" si="19"/>
         <v>552215.32157282322</v>
       </c>
-      <c r="BJ16" s="3">
+      <c r="BK17" s="6">
         <f t="shared" si="19"/>
         <v>563259.62800427969</v>
       </c>
-      <c r="BK16" s="3">
+      <c r="BL17" s="6">
         <f t="shared" si="19"/>
         <v>574524.82056436525</v>
       </c>
-      <c r="BL16" s="3">
+      <c r="BM17" s="6">
         <f t="shared" si="19"/>
         <v>586015.31697565259</v>
       </c>
-      <c r="BM16" s="3">
+      <c r="BN17" s="6">
         <f t="shared" si="19"/>
         <v>597735.62331516563</v>
       </c>
-      <c r="BN16" s="3">
+      <c r="BO17" s="6">
         <f t="shared" si="19"/>
         <v>609690.33578146901</v>
       </c>
-      <c r="BO16" s="3">
+      <c r="BP17" s="6">
         <f t="shared" si="19"/>
         <v>621884.14249709842</v>
       </c>
-      <c r="BP16" s="3">
+      <c r="BQ17" s="6">
         <f t="shared" si="19"/>
         <v>634321.82534704043</v>
       </c>
-      <c r="BQ16" s="3">
+      <c r="BR17" s="6">
         <f t="shared" si="19"/>
         <v>647008.2618539813</v>
       </c>
-      <c r="BR16" s="3">
+      <c r="BS17" s="6">
         <f t="shared" si="19"/>
         <v>659948.4270910609</v>
       </c>
-      <c r="BS16" s="3">
+      <c r="BT17" s="6">
         <f t="shared" si="19"/>
         <v>673147.39563288214</v>
       </c>
-      <c r="BT16" s="3">
+      <c r="BU17" s="6">
         <f t="shared" si="19"/>
         <v>686610.34354553977</v>
       </c>
-      <c r="BU16" s="3">
+      <c r="BV17" s="6">
         <f t="shared" si="19"/>
         <v>700342.5504164506</v>
       </c>
-      <c r="BV16" s="3">
+      <c r="BW17" s="6">
         <f t="shared" si="19"/>
         <v>714349.40142477967</v>
       </c>
-      <c r="BW16" s="3">
+      <c r="BX17" s="6">
         <f t="shared" si="19"/>
         <v>728636.38945327525</v>
       </c>
-      <c r="BX16" s="3">
+      <c r="BY17" s="6">
         <f t="shared" si="19"/>
         <v>743209.11724234081</v>
       </c>
-      <c r="BY16" s="3">
+      <c r="BZ17" s="6">
         <f t="shared" si="19"/>
         <v>758073.29958718759</v>
       </c>
-      <c r="BZ16" s="3">
+      <c r="CA17" s="6">
         <f t="shared" si="19"/>
         <v>773234.76557893131</v>
       </c>
-      <c r="CA16" s="3">
+      <c r="CB17" s="6">
         <f t="shared" si="19"/>
         <v>788699.46089051</v>
       </c>
-      <c r="CB16" s="3">
+      <c r="CC17" s="6">
         <f t="shared" si="19"/>
         <v>804473.45010832022</v>
       </c>
-      <c r="CC16" s="3">
+      <c r="CD17" s="6">
         <f t="shared" si="19"/>
         <v>820562.91911048663</v>
       </c>
-      <c r="CD16" s="3">
+      <c r="CE17" s="6">
         <f t="shared" si="19"/>
         <v>836974.17749269633</v>
       </c>
-      <c r="CE16" s="3">
+      <c r="CF17" s="6">
         <f t="shared" si="19"/>
         <v>853713.66104255023</v>
       </c>
-      <c r="CF16" s="3">
+      <c r="CG17" s="6">
         <f t="shared" si="19"/>
         <v>870787.9342634012</v>
       </c>
-      <c r="CG16" s="3">
-        <f t="shared" ref="CG16:DM16" si="20">CF16*(1+$W$20)</f>
+      <c r="CH17" s="6">
+        <f t="shared" ref="CH17:DN17" si="20">CG17*(1+$X$21)</f>
         <v>888203.6929486692</v>
       </c>
-      <c r="CH16" s="3">
+      <c r="CI17" s="6">
         <f t="shared" si="20"/>
         <v>905967.76680764265</v>
       </c>
-      <c r="CI16" s="3">
+      <c r="CJ17" s="6">
         <f t="shared" si="20"/>
         <v>924087.12214379548</v>
       </c>
-      <c r="CJ16" s="3">
+      <c r="CK17" s="6">
         <f t="shared" si="20"/>
         <v>942568.86458667147</v>
       </c>
-      <c r="CK16" s="3">
+      <c r="CL17" s="6">
         <f t="shared" si="20"/>
         <v>961420.24187840486</v>
       </c>
-      <c r="CL16" s="3">
+      <c r="CM17" s="6">
         <f t="shared" si="20"/>
         <v>980648.64671597292</v>
       </c>
-      <c r="CM16" s="3">
+      <c r="CN17" s="6">
         <f t="shared" si="20"/>
         <v>1000261.6196502924</v>
       </c>
-      <c r="CN16" s="3">
+      <c r="CO17" s="6">
         <f t="shared" si="20"/>
         <v>1020266.8520432983</v>
       </c>
-      <c r="CO16" s="3">
+      <c r="CP17" s="6">
         <f t="shared" si="20"/>
         <v>1040672.1890841643</v>
       </c>
-      <c r="CP16" s="3">
+      <c r="CQ17" s="6">
         <f t="shared" si="20"/>
         <v>1061485.6328658476</v>
       </c>
-      <c r="CQ16" s="3">
+      <c r="CR17" s="6">
         <f t="shared" si="20"/>
         <v>1082715.3455231646</v>
       </c>
-      <c r="CR16" s="3">
+      <c r="CS17" s="6">
         <f t="shared" si="20"/>
         <v>1104369.652433628</v>
       </c>
-      <c r="CS16" s="3">
+      <c r="CT17" s="6">
         <f t="shared" si="20"/>
         <v>1126457.0454823005</v>
       </c>
-      <c r="CT16" s="3">
+      <c r="CU17" s="6">
         <f t="shared" si="20"/>
         <v>1148986.1863919464</v>
       </c>
-      <c r="CU16" s="3">
+      <c r="CV17" s="6">
         <f t="shared" si="20"/>
         <v>1171965.9101197852</v>
       </c>
-      <c r="CV16" s="3">
+      <c r="CW17" s="6">
         <f t="shared" si="20"/>
         <v>1195405.2283221809</v>
       </c>
-      <c r="CW16" s="3">
+      <c r="CX17" s="6">
         <f t="shared" si="20"/>
         <v>1219313.3328886246</v>
       </c>
-      <c r="CX16" s="3">
+      <c r="CY17" s="6">
         <f t="shared" si="20"/>
         <v>1243699.5995463971</v>
       </c>
-      <c r="CY16" s="3">
+      <c r="CZ17" s="6">
         <f t="shared" si="20"/>
         <v>1268573.5915373252</v>
       </c>
-      <c r="CZ16" s="3">
+      <c r="DA17" s="6">
         <f t="shared" si="20"/>
         <v>1293945.0633680718</v>
       </c>
-      <c r="DA16" s="3">
+      <c r="DB17" s="6">
         <f t="shared" si="20"/>
         <v>1319823.9646354332</v>
       </c>
-      <c r="DB16" s="3">
+      <c r="DC17" s="6">
         <f t="shared" si="20"/>
         <v>1346220.4439281418</v>
       </c>
-      <c r="DC16" s="3">
+      <c r="DD17" s="6">
         <f t="shared" si="20"/>
         <v>1373144.8528067048</v>
       </c>
-      <c r="DD16" s="3">
+      <c r="DE17" s="6">
         <f t="shared" si="20"/>
         <v>1400607.749862839</v>
       </c>
-      <c r="DE16" s="3">
+      <c r="DF17" s="6">
         <f t="shared" si="20"/>
         <v>1428619.9048600958</v>
       </c>
-      <c r="DF16" s="3">
+      <c r="DG17" s="6">
         <f t="shared" si="20"/>
         <v>1457192.3029572978</v>
       </c>
-      <c r="DG16" s="3">
+      <c r="DH17" s="6">
         <f t="shared" si="20"/>
         <v>1486336.1490164436</v>
       </c>
-      <c r="DH16" s="3">
+      <c r="DI17" s="6">
         <f t="shared" si="20"/>
         <v>1516062.8719967725</v>
       </c>
-      <c r="DI16" s="3">
+      <c r="DJ17" s="6">
         <f t="shared" si="20"/>
         <v>1546384.1294367081</v>
       </c>
-      <c r="DJ16" s="3">
+      <c r="DK17" s="6">
         <f t="shared" si="20"/>
         <v>1577311.8120254423</v>
       </c>
-      <c r="DK16" s="3">
+      <c r="DL17" s="6">
         <f t="shared" si="20"/>
         <v>1608858.0482659512</v>
       </c>
-      <c r="DL16" s="3">
+      <c r="DM17" s="6">
         <f t="shared" si="20"/>
         <v>1641035.2092312702</v>
       </c>
-      <c r="DM16" s="3">
+      <c r="DN17" s="6">
         <f t="shared" si="20"/>
         <v>1673855.9134158958</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1">
+    <row r="18" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
         <v>7540</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O18" s="1">
         <v>7472</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P18" s="1">
         <v>7469</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q18" s="1">
         <v>7469</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R18" s="1">
         <v>7469</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S18" s="1">
         <v>7469</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T18" s="1">
         <v>7469</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U18" s="1">
         <v>7469</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="4">
-        <f>M16/M17</f>
+    <row r="19" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="4">
+        <f>N17/N18</f>
         <v>9.6469496021220156</v>
       </c>
-      <c r="N18" s="4">
-        <f t="shared" ref="N18:T18" si="21">N16/N17</f>
+      <c r="O19" s="4">
+        <f t="shared" ref="O19:U19" si="21">O17/O18</f>
         <v>9.6842880085653107</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P19" s="4">
         <f t="shared" si="21"/>
         <v>11.800240996117285</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q19" s="4">
         <f t="shared" si="21"/>
         <v>14.190359055991257</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="21"/>
         <v>16.895087250945867</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="21"/>
         <v>21.083139377733474</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="21"/>
         <v>26.305888397696858</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="21"/>
         <v>32.827586213704819</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="V19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W19" s="5">
+    <row r="20" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="W20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="7">
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" ref="N20:T20" si="22">N4/M4-1</f>
+    <row r="21" spans="2:118" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21:U21" si="22">O5/N5-1</f>
         <v>6.8820295556564215E-2</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P21" s="8">
         <f t="shared" si="22"/>
         <v>0.1566996201307127</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q21" s="8">
         <f t="shared" si="22"/>
         <v>0.19466054998463345</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R21" s="8">
         <f t="shared" si="22"/>
         <v>0.2039667466408428</v>
       </c>
-      <c r="R20" s="6">
+      <c r="S21" s="8">
         <f t="shared" si="22"/>
         <v>0.20985361210185127</v>
       </c>
-      <c r="S20" s="6">
+      <c r="T21" s="8">
         <f t="shared" si="22"/>
         <v>0.2151580101332895</v>
       </c>
-      <c r="T20" s="6">
+      <c r="U21" s="8">
         <f t="shared" si="22"/>
         <v>0.2198935537148512</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W20" s="5">
+      <c r="W21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X21" s="7">
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="6">
-        <f>N2/M2-1</f>
+    <row r="22" spans="2:118" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="8">
+        <f>O3/N3-1</f>
         <v>-0.11044657097288679</v>
       </c>
-      <c r="O21" s="6">
-        <f>O2/N2-1</f>
+      <c r="P22" s="8">
+        <f>P3/O3-1</f>
         <v>1.1437580178983442E-3</v>
       </c>
-      <c r="P21" s="6">
-        <f t="shared" ref="P21:T21" si="23">P2/O2-1</f>
+      <c r="Q22" s="8">
+        <f t="shared" ref="Q22:U22" si="23">Q3/P3-1</f>
         <v>4.0577606924695919E-2</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R22" s="8">
         <f t="shared" si="23"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R21" s="6">
+      <c r="S22" s="8">
         <f t="shared" si="23"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S21" s="6">
+      <c r="T22" s="8">
         <f t="shared" si="23"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T21" s="6">
+      <c r="U22" s="8">
         <f t="shared" si="23"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W21" s="5">
+      <c r="W22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="7">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6">
-        <f>N3/M3-1</f>
+    <row r="23" spans="2:118" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8">
+        <f>O4/N4-1</f>
         <v>0.17268078191463943</v>
       </c>
-      <c r="O22" s="6">
-        <f>O3/N3-1</f>
+      <c r="P23" s="8">
+        <f>P4/O4-1</f>
         <v>0.2250638517552439</v>
       </c>
-      <c r="P22" s="6">
-        <f t="shared" ref="P22:T22" si="24">P3/O3-1</f>
+      <c r="Q23" s="8">
+        <f t="shared" ref="Q23:U23" si="24">Q4/P4-1</f>
         <v>0.25</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R23" s="8">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="R22" s="6">
+      <c r="S23" s="8">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="S22" s="6">
+      <c r="T23" s="8">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="T22" s="6">
+      <c r="U23" s="8">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W22" s="3">
-        <f>NPV(W21,P33:XFD33)+Sheet1!D5-Sheet1!D6</f>
+      <c r="W23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="6">
+        <f>NPV(X22,Q34:XFD34)+Main!I6-Main!I7</f>
         <v>3092560.6900336547</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="7">
-        <f>M15/M14</f>
+    <row r="24" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="9">
+        <f>N16/N15</f>
         <v>0.13113383343685794</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" ref="N23:O23" si="25">N15/N14</f>
+      <c r="O24" s="9">
+        <f t="shared" ref="O24:P24" si="25">O16/O15</f>
         <v>0.18978625253328257</v>
       </c>
-      <c r="O23" s="7">
+      <c r="P24" s="9">
         <f t="shared" si="25"/>
         <v>0.18231326597827197</v>
       </c>
-      <c r="P23" s="7">
+      <c r="Q24" s="9">
         <v>0.19</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="R24" s="9">
         <v>0.19</v>
       </c>
-      <c r="R23" s="7">
+      <c r="S24" s="9">
         <v>0.19</v>
       </c>
-      <c r="S23" s="7">
+      <c r="T24" s="9">
         <v>0.19</v>
       </c>
-      <c r="T23" s="7">
+      <c r="U24" s="9">
         <v>0.19</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W23" s="1">
-        <f>W22/Sheet1!D3</f>
+      <c r="W24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <f>X23/Main!I4</f>
         <v>416.00325236645108</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="V24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" s="7">
-        <f>W23/Sheet1!D2-1</f>
+    <row r="25" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="W25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" s="9">
+        <f>X24/Main!I3-1</f>
         <v>-0.23528813903225909</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="6">
-        <f>M7/M4</f>
+    <row r="26" spans="2:118" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="8">
+        <f>N8/N5</f>
         <v>0.68401674484289099</v>
       </c>
-      <c r="N25" s="6">
-        <f t="shared" ref="N25:T25" si="26">N7/N4</f>
+      <c r="O26" s="8">
+        <f t="shared" ref="O26:U26" si="26">O8/O5</f>
         <v>0.68920085883491022</v>
       </c>
-      <c r="O25" s="6">
+      <c r="P26" s="8">
         <f t="shared" si="26"/>
         <v>0.69764443827971379</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q26" s="8">
         <f t="shared" si="26"/>
         <v>0.69803317833798506</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R26" s="8">
         <f t="shared" si="26"/>
         <v>0.69883312575543532</v>
       </c>
-      <c r="R25" s="6">
+      <c r="S26" s="8">
         <f t="shared" si="26"/>
         <v>0.69989113251124724</v>
       </c>
-      <c r="S25" s="6">
+      <c r="T26" s="8">
         <f t="shared" si="26"/>
         <v>0.70120481343963159</v>
       </c>
-      <c r="T25" s="6">
+      <c r="U26" s="8">
         <f t="shared" si="26"/>
         <v>0.70276585327424357</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="7">
-        <f>1-M5/M2</f>
+    <row r="27" spans="2:118" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="9">
+        <f>1-N6/N3</f>
         <v>0.73788703734257277</v>
       </c>
-      <c r="N26" s="7">
-        <f t="shared" ref="N26:O26" si="27">1-N5/N2</f>
+      <c r="O27" s="9">
+        <f t="shared" ref="O27:P27" si="27">1-O6/O3</f>
         <v>0.72481800336944935</v>
       </c>
-      <c r="O26" s="7">
+      <c r="P27" s="9">
         <f t="shared" si="27"/>
         <v>0.76422274713229277</v>
       </c>
-      <c r="P26" s="7">
-        <f>O26*1.005</f>
+      <c r="Q27" s="9">
+        <f>P27*1.005</f>
         <v>0.76804386086795418</v>
       </c>
-      <c r="Q26" s="7">
-        <f t="shared" ref="Q26:T26" si="28">P26*1.005</f>
+      <c r="R27" s="9">
+        <f t="shared" ref="R27:U27" si="28">Q27*1.005</f>
         <v>0.77188408017229382</v>
       </c>
-      <c r="R26" s="7">
+      <c r="S27" s="9">
         <f t="shared" si="28"/>
         <v>0.77574350057315522</v>
       </c>
-      <c r="S26" s="7">
+      <c r="T27" s="9">
         <f t="shared" si="28"/>
         <v>0.77962221807602095</v>
       </c>
-      <c r="T26" s="7">
+      <c r="U27" s="9">
         <f t="shared" si="28"/>
         <v>0.78352032916640102</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="7">
-        <f>1-M6/M3</f>
+    <row r="28" spans="2:118" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="9">
+        <f>1-N7/N4</f>
         <v>0.65280632159186858</v>
       </c>
-      <c r="N27" s="7">
-        <f t="shared" ref="N27:O27" si="29">1-N6/N3</f>
+      <c r="O28" s="9">
+        <f t="shared" ref="O28:P28" si="29">1-O7/O4</f>
         <v>0.67354771220519516</v>
       </c>
-      <c r="O27" s="7">
+      <c r="P28" s="9">
         <f t="shared" si="29"/>
         <v>0.67373259624394921</v>
       </c>
-      <c r="P27" s="7">
-        <f>O27*1.005</f>
+      <c r="Q28" s="9">
+        <f>P28*1.005</f>
         <v>0.67710125922516884</v>
       </c>
-      <c r="Q27" s="7">
-        <f t="shared" ref="Q27:T27" si="30">P27*1.005</f>
+      <c r="R28" s="9">
+        <f t="shared" ref="R28:U28" si="30">Q28*1.005</f>
         <v>0.68048676552129461</v>
       </c>
-      <c r="R27" s="7">
+      <c r="S28" s="9">
         <f t="shared" si="30"/>
         <v>0.68388919934890102</v>
       </c>
-      <c r="S27" s="7">
+      <c r="T28" s="9">
         <f t="shared" si="30"/>
         <v>0.68730864534564551</v>
       </c>
-      <c r="T27" s="7">
+      <c r="U28" s="9">
         <f t="shared" si="30"/>
         <v>0.69074518857237366</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="7">
-        <f>M12/M4</f>
+    <row r="29" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="9">
+        <f>N13/N5</f>
         <v>0.4205527815604983</v>
       </c>
-      <c r="N28" s="7">
-        <f t="shared" ref="N28:T28" si="31">N12/N4</f>
+      <c r="O29" s="9">
+        <f t="shared" ref="O29:U29" si="31">O13/O5</f>
         <v>0.41772880636104098</v>
       </c>
-      <c r="O28" s="7">
+      <c r="P29" s="9">
         <f t="shared" si="31"/>
         <v>0.44644299573273716</v>
       </c>
-      <c r="P28" s="7">
+      <c r="Q29" s="9">
         <f t="shared" si="31"/>
         <v>0.44683173579100849</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="R29" s="9">
         <f t="shared" si="31"/>
         <v>0.44763168320845881</v>
       </c>
-      <c r="R28" s="7">
+      <c r="S29" s="9">
         <f t="shared" si="31"/>
         <v>0.44868968996427067</v>
       </c>
-      <c r="S28" s="7">
+      <c r="T29" s="9">
         <f t="shared" si="31"/>
         <v>0.45000337089265502</v>
       </c>
-      <c r="T28" s="7">
+      <c r="U29" s="9">
         <f t="shared" si="31"/>
         <v>0.45156441072726711</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M30" s="7">
-        <f>M31/M16</f>
+    <row r="30" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="N31" s="9">
+        <f>N32/N17</f>
         <v>1.224050702521378</v>
       </c>
-      <c r="N30" s="7">
-        <f>N31/N16</f>
+      <c r="O31" s="9">
+        <f>O32/O17</f>
         <v>1.2103481156976825</v>
       </c>
-      <c r="O30" s="7">
-        <f>O31/O16</f>
+      <c r="P31" s="9">
+        <f>P32/P17</f>
         <v>1.3450576381955159</v>
       </c>
-      <c r="P30" s="7">
-        <f>O30*1.005</f>
+      <c r="Q31" s="9">
+        <f>P31*1.005</f>
         <v>1.3517829263864933</v>
       </c>
-      <c r="Q30" s="7">
-        <f t="shared" ref="Q30:T30" si="32">P30*1.005</f>
+      <c r="R31" s="9">
+        <f t="shared" ref="R31:U31" si="32">Q31*1.005</f>
         <v>1.3585418410184256</v>
       </c>
-      <c r="R30" s="7">
+      <c r="S31" s="9">
         <f t="shared" si="32"/>
         <v>1.3653345502235175</v>
       </c>
-      <c r="S30" s="7">
+      <c r="T31" s="9">
         <f t="shared" si="32"/>
         <v>1.3721612229746349</v>
       </c>
-      <c r="T30" s="7">
+      <c r="U31" s="9">
         <f t="shared" si="32"/>
         <v>1.3790220290895079</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="1">
+    <row r="32" spans="2:118" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="1">
         <v>89035</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O32" s="1">
         <v>87582</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P32" s="1">
         <v>118548</v>
       </c>
-      <c r="P31" s="1">
-        <f>P30*P16</f>
+      <c r="Q32" s="1">
+        <f>Q31*Q17</f>
         <v>143272.48734604538</v>
       </c>
-      <c r="Q31" s="1">
-        <f t="shared" ref="Q31:T31" si="33">Q30*Q16</f>
+      <c r="R32" s="1">
+        <f t="shared" ref="R32:U32" si="33">R31*R17</f>
         <v>171433.58886442191</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S32" s="1">
         <f t="shared" si="33"/>
         <v>214999.18794977345</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T32" s="1">
         <f t="shared" si="33"/>
         <v>269600.4264442831</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U32" s="1">
         <f t="shared" si="33"/>
         <v>338121.36522793828</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="1">
+    <row r="33" spans="2:124" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="1">
         <v>23886</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O33" s="1">
         <v>28107</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P33" s="1">
         <v>44477</v>
       </c>
-      <c r="P32" s="1">
-        <f>O32*(1+P20)</f>
+      <c r="Q33" s="1">
+        <f>P33*(1+Q21)</f>
         <v>53134.917281666545</v>
       </c>
-      <c r="Q32" s="1">
-        <f t="shared" ref="Q32:T32" si="34">P32*(1+Q20)</f>
+      <c r="R33" s="1">
+        <f t="shared" ref="R33:U33" si="34">Q33*(1+R21)</f>
         <v>63972.673492638365</v>
       </c>
-      <c r="R32" s="1">
+      <c r="S33" s="1">
         <f t="shared" si="34"/>
         <v>77397.570100880883</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T33" s="1">
         <f t="shared" si="34"/>
         <v>94050.277272938198</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U33" s="1">
         <f t="shared" si="34"/>
         <v>114731.32697035169</v>
       </c>
     </row>
-    <row r="33" spans="1:123" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="3">
-        <f>M31-M32</f>
+    <row r="34" spans="2:124" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="6">
+        <f>N32-N33</f>
         <v>65149</v>
       </c>
-      <c r="N33" s="3">
-        <f t="shared" ref="N33:O33" si="35">N31-N32</f>
+      <c r="O34" s="6">
+        <f t="shared" ref="O34:P34" si="35">O32-O33</f>
         <v>59475</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P34" s="6">
         <f t="shared" si="35"/>
         <v>74071</v>
       </c>
-      <c r="P33" s="3">
-        <f t="shared" ref="P33" si="36">P31-P32</f>
+      <c r="Q34" s="6">
+        <f t="shared" ref="Q34" si="36">Q32-Q33</f>
         <v>90137.570064378844</v>
       </c>
-      <c r="Q33" s="3">
-        <f t="shared" ref="Q33" si="37">Q31-Q32</f>
+      <c r="R34" s="6">
+        <f t="shared" ref="R34" si="37">R32-R33</f>
         <v>107460.91537178354</v>
       </c>
-      <c r="R33" s="3">
-        <f t="shared" ref="R33" si="38">R31-R32</f>
+      <c r="S34" s="6">
+        <f t="shared" ref="S34" si="38">S32-S33</f>
         <v>137601.61784889258</v>
       </c>
-      <c r="S33" s="3">
-        <f t="shared" ref="S33" si="39">S31-S32</f>
+      <c r="T34" s="6">
+        <f t="shared" ref="T34" si="39">T32-T33</f>
         <v>175550.14917134491</v>
       </c>
-      <c r="T33" s="3">
-        <f t="shared" ref="T33" si="40">T31-T32</f>
+      <c r="U34" s="6">
+        <f t="shared" ref="U34" si="40">U32-U33</f>
         <v>223390.0382575866</v>
       </c>
-      <c r="U33" s="3">
-        <f t="shared" ref="U33:AZ33" si="41">T33*(1+$W$20)</f>
+      <c r="V34" s="6">
+        <f t="shared" ref="V34:BA34" si="41">U34*(1+$X$21)</f>
         <v>227857.83902273834</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W34" s="6">
         <f t="shared" si="41"/>
         <v>232414.9958031931</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X34" s="6">
         <f t="shared" si="41"/>
         <v>237063.29571925697</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y34" s="6">
         <f t="shared" si="41"/>
         <v>241804.56163364212</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z34" s="6">
         <f t="shared" si="41"/>
         <v>246640.65286631498</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA34" s="6">
         <f t="shared" si="41"/>
         <v>251573.46592364128</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB34" s="6">
         <f t="shared" si="41"/>
         <v>256604.93524211412</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC34" s="6">
         <f t="shared" si="41"/>
         <v>261737.03394695642</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD34" s="6">
         <f t="shared" si="41"/>
         <v>266971.77462589554</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE34" s="6">
         <f t="shared" si="41"/>
         <v>272311.21011841344</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF34" s="6">
         <f t="shared" si="41"/>
         <v>277757.43432078173</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG34" s="6">
         <f t="shared" si="41"/>
         <v>283312.58300719736</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AH34" s="6">
         <f t="shared" si="41"/>
         <v>288978.83466734132</v>
       </c>
-      <c r="AH33" s="3">
+      <c r="AI34" s="6">
         <f t="shared" si="41"/>
         <v>294758.41136068816</v>
       </c>
-      <c r="AI33" s="3">
+      <c r="AJ34" s="6">
         <f t="shared" si="41"/>
         <v>300653.57958790194</v>
       </c>
-      <c r="AJ33" s="3">
+      <c r="AK34" s="6">
         <f t="shared" si="41"/>
         <v>306666.65117966</v>
       </c>
-      <c r="AK33" s="3">
+      <c r="AL34" s="6">
         <f t="shared" si="41"/>
         <v>312799.98420325317</v>
       </c>
-      <c r="AL33" s="3">
+      <c r="AM34" s="6">
         <f t="shared" si="41"/>
         <v>319055.98388731823</v>
       </c>
-      <c r="AM33" s="3">
+      <c r="AN34" s="6">
         <f t="shared" si="41"/>
         <v>325437.10356506461</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AO34" s="6">
         <f t="shared" si="41"/>
         <v>331945.84563636588</v>
       </c>
-      <c r="AO33" s="3">
+      <c r="AP34" s="6">
         <f t="shared" si="41"/>
         <v>338584.76254909323</v>
       </c>
-      <c r="AP33" s="3">
+      <c r="AQ34" s="6">
         <f t="shared" si="41"/>
         <v>345356.45780007512</v>
       </c>
-      <c r="AQ33" s="3">
+      <c r="AR34" s="6">
         <f t="shared" si="41"/>
         <v>352263.58695607662</v>
       </c>
-      <c r="AR33" s="3">
+      <c r="AS34" s="6">
         <f t="shared" si="41"/>
         <v>359308.85869519814</v>
       </c>
-      <c r="AS33" s="3">
+      <c r="AT34" s="6">
         <f t="shared" si="41"/>
         <v>366495.03586910211</v>
       </c>
-      <c r="AT33" s="3">
+      <c r="AU34" s="6">
         <f t="shared" si="41"/>
         <v>373824.93658648414</v>
       </c>
-      <c r="AU33" s="3">
+      <c r="AV34" s="6">
         <f t="shared" si="41"/>
         <v>381301.43531821383</v>
       </c>
-      <c r="AV33" s="3">
+      <c r="AW34" s="6">
         <f t="shared" si="41"/>
         <v>388927.4640245781</v>
       </c>
-      <c r="AW33" s="3">
+      <c r="AX34" s="6">
         <f t="shared" si="41"/>
         <v>396706.01330506965</v>
       </c>
-      <c r="AX33" s="3">
+      <c r="AY34" s="6">
         <f t="shared" si="41"/>
         <v>404640.13357117103</v>
       </c>
-      <c r="AY33" s="3">
+      <c r="AZ34" s="6">
         <f t="shared" si="41"/>
         <v>412732.93624259444</v>
       </c>
-      <c r="AZ33" s="3">
+      <c r="BA34" s="6">
         <f t="shared" si="41"/>
         <v>420987.59496744635</v>
       </c>
-      <c r="BA33" s="3">
-        <f t="shared" ref="BA33:CF33" si="42">AZ33*(1+$W$20)</f>
+      <c r="BB34" s="6">
+        <f t="shared" ref="BB34:CG34" si="42">BA34*(1+$X$21)</f>
         <v>429407.34686679527</v>
       </c>
-      <c r="BB33" s="3">
+      <c r="BC34" s="6">
         <f t="shared" si="42"/>
         <v>437995.49380413117</v>
       </c>
-      <c r="BC33" s="3">
+      <c r="BD34" s="6">
         <f t="shared" si="42"/>
         <v>446755.40368021379</v>
       </c>
-      <c r="BD33" s="3">
+      <c r="BE34" s="6">
         <f t="shared" si="42"/>
         <v>455690.51175381808</v>
       </c>
-      <c r="BE33" s="3">
+      <c r="BF34" s="6">
         <f t="shared" si="42"/>
         <v>464804.32198889443</v>
       </c>
-      <c r="BF33" s="3">
+      <c r="BG34" s="6">
         <f t="shared" si="42"/>
         <v>474100.40842867235</v>
       </c>
-      <c r="BG33" s="3">
+      <c r="BH34" s="6">
         <f t="shared" si="42"/>
         <v>483582.41659724578</v>
       </c>
-      <c r="BH33" s="3">
+      <c r="BI34" s="6">
         <f t="shared" si="42"/>
         <v>493254.06492919073</v>
       </c>
-      <c r="BI33" s="3">
+      <c r="BJ34" s="6">
         <f t="shared" si="42"/>
         <v>503119.14622777456</v>
       </c>
-      <c r="BJ33" s="3">
+      <c r="BK34" s="6">
         <f t="shared" si="42"/>
         <v>513181.52915233007</v>
       </c>
-      <c r="BK33" s="3">
+      <c r="BL34" s="6">
         <f t="shared" si="42"/>
         <v>523445.15973537666</v>
       </c>
-      <c r="BL33" s="3">
+      <c r="BM34" s="6">
         <f t="shared" si="42"/>
         <v>533914.06293008418</v>
       </c>
-      <c r="BM33" s="3">
+      <c r="BN34" s="6">
         <f t="shared" si="42"/>
         <v>544592.34418868588</v>
       </c>
-      <c r="BN33" s="3">
+      <c r="BO34" s="6">
         <f t="shared" si="42"/>
         <v>555484.19107245957</v>
       </c>
-      <c r="BO33" s="3">
+      <c r="BP34" s="6">
         <f t="shared" si="42"/>
         <v>566593.87489390874</v>
       </c>
-      <c r="BP33" s="3">
+      <c r="BQ34" s="6">
         <f t="shared" si="42"/>
         <v>577925.7523917869</v>
       </c>
-      <c r="BQ33" s="3">
+      <c r="BR34" s="6">
         <f t="shared" si="42"/>
         <v>589484.26743962266</v>
       </c>
-      <c r="BR33" s="3">
+      <c r="BS34" s="6">
         <f t="shared" si="42"/>
         <v>601273.95278841513</v>
       </c>
-      <c r="BS33" s="3">
+      <c r="BT34" s="6">
         <f t="shared" si="42"/>
         <v>613299.43184418348</v>
       </c>
-      <c r="BT33" s="3">
+      <c r="BU34" s="6">
         <f t="shared" si="42"/>
         <v>625565.42048106715</v>
       </c>
-      <c r="BU33" s="3">
+      <c r="BV34" s="6">
         <f t="shared" si="42"/>
         <v>638076.72889068851</v>
       </c>
-      <c r="BV33" s="3">
+      <c r="BW34" s="6">
         <f t="shared" si="42"/>
         <v>650838.26346850232</v>
       </c>
-      <c r="BW33" s="3">
+      <c r="BX34" s="6">
         <f t="shared" si="42"/>
         <v>663855.02873787237</v>
       </c>
-      <c r="BX33" s="3">
+      <c r="BY34" s="6">
         <f t="shared" si="42"/>
         <v>677132.12931262981</v>
       </c>
-      <c r="BY33" s="3">
+      <c r="BZ34" s="6">
         <f t="shared" si="42"/>
         <v>690674.77189888246</v>
       </c>
-      <c r="BZ33" s="3">
+      <c r="CA34" s="6">
         <f t="shared" si="42"/>
         <v>704488.26733686018</v>
       </c>
-      <c r="CA33" s="3">
+      <c r="CB34" s="6">
         <f t="shared" si="42"/>
         <v>718578.03268359741</v>
       </c>
-      <c r="CB33" s="3">
+      <c r="CC34" s="6">
         <f t="shared" si="42"/>
         <v>732949.59333726938</v>
       </c>
-      <c r="CC33" s="3">
+      <c r="CD34" s="6">
         <f t="shared" si="42"/>
         <v>747608.58520401479</v>
       </c>
-      <c r="CD33" s="3">
+      <c r="CE34" s="6">
         <f t="shared" si="42"/>
         <v>762560.75690809509</v>
       </c>
-      <c r="CE33" s="3">
+      <c r="CF34" s="6">
         <f t="shared" si="42"/>
         <v>777811.972046257</v>
       </c>
-      <c r="CF33" s="3">
+      <c r="CG34" s="6">
         <f t="shared" si="42"/>
         <v>793368.21148718218</v>
       </c>
-      <c r="CG33" s="3">
-        <f t="shared" ref="CG33:DL33" si="43">CF33*(1+$W$20)</f>
+      <c r="CH34" s="6">
+        <f t="shared" ref="CH34:DM34" si="43">CG34*(1+$X$21)</f>
         <v>809235.57571692578</v>
       </c>
-      <c r="CH33" s="3">
+      <c r="CI34" s="6">
         <f t="shared" si="43"/>
         <v>825420.28723126429</v>
       </c>
-      <c r="CI33" s="3">
+      <c r="CJ34" s="6">
         <f t="shared" si="43"/>
         <v>841928.69297588954</v>
       </c>
-      <c r="CJ33" s="3">
+      <c r="CK34" s="6">
         <f t="shared" si="43"/>
         <v>858767.26683540735</v>
       </c>
-      <c r="CK33" s="3">
+      <c r="CL34" s="6">
         <f t="shared" si="43"/>
         <v>875942.61217211548</v>
       </c>
-      <c r="CL33" s="3">
+      <c r="CM34" s="6">
         <f t="shared" si="43"/>
         <v>893461.4644155578</v>
       </c>
-      <c r="CM33" s="3">
+      <c r="CN34" s="6">
         <f t="shared" si="43"/>
         <v>911330.69370386901</v>
       </c>
-      <c r="CN33" s="3">
+      <c r="CO34" s="6">
         <f t="shared" si="43"/>
         <v>929557.30757794646</v>
       </c>
-      <c r="CO33" s="3">
+      <c r="CP34" s="6">
         <f t="shared" si="43"/>
         <v>948148.45372950542</v>
       </c>
-      <c r="CP33" s="3">
+      <c r="CQ34" s="6">
         <f t="shared" si="43"/>
         <v>967111.42280409555</v>
       </c>
-      <c r="CQ33" s="3">
+      <c r="CR34" s="6">
         <f t="shared" si="43"/>
         <v>986453.65126017749</v>
       </c>
-      <c r="CR33" s="3">
+      <c r="CS34" s="6">
         <f t="shared" si="43"/>
         <v>1006182.724285381</v>
       </c>
-      <c r="CS33" s="3">
+      <c r="CT34" s="6">
         <f t="shared" si="43"/>
         <v>1026306.3787710887</v>
       </c>
-      <c r="CT33" s="3">
+      <c r="CU34" s="6">
         <f t="shared" si="43"/>
         <v>1046832.5063465105</v>
       </c>
-      <c r="CU33" s="3">
+      <c r="CV34" s="6">
         <f t="shared" si="43"/>
         <v>1067769.1564734408</v>
       </c>
-      <c r="CV33" s="3">
+      <c r="CW34" s="6">
         <f t="shared" si="43"/>
         <v>1089124.5396029097</v>
       </c>
-      <c r="CW33" s="3">
+      <c r="CX34" s="6">
         <f t="shared" si="43"/>
         <v>1110907.0303949679</v>
       </c>
-      <c r="CX33" s="3">
+      <c r="CY34" s="6">
         <f t="shared" si="43"/>
         <v>1133125.1710028672</v>
       </c>
-      <c r="CY33" s="3">
+      <c r="CZ34" s="6">
         <f t="shared" si="43"/>
         <v>1155787.6744229246</v>
       </c>
-      <c r="CZ33" s="3">
+      <c r="DA34" s="6">
         <f t="shared" si="43"/>
         <v>1178903.4279113831</v>
       </c>
-      <c r="DA33" s="3">
+      <c r="DB34" s="6">
         <f t="shared" si="43"/>
         <v>1202481.4964696108</v>
       </c>
-      <c r="DB33" s="3">
+      <c r="DC34" s="6">
         <f t="shared" si="43"/>
         <v>1226531.126399003</v>
       </c>
-      <c r="DC33" s="3">
+      <c r="DD34" s="6">
         <f t="shared" si="43"/>
         <v>1251061.748926983</v>
       </c>
-      <c r="DD33" s="3">
+      <c r="DE34" s="6">
         <f t="shared" si="43"/>
         <v>1276082.9839055226</v>
       </c>
-      <c r="DE33" s="3">
+      <c r="DF34" s="6">
         <f t="shared" si="43"/>
         <v>1301604.643583633</v>
       </c>
-      <c r="DF33" s="3">
+      <c r="DG34" s="6">
         <f t="shared" si="43"/>
         <v>1327636.7364553057</v>
       </c>
-      <c r="DG33" s="3">
+      <c r="DH34" s="6">
         <f t="shared" si="43"/>
         <v>1354189.4711844118</v>
       </c>
-      <c r="DH33" s="3">
+      <c r="DI34" s="6">
         <f t="shared" si="43"/>
         <v>1381273.2606081001</v>
       </c>
-      <c r="DI33" s="3">
+      <c r="DJ34" s="6">
         <f t="shared" si="43"/>
         <v>1408898.7258202622</v>
       </c>
-      <c r="DJ33" s="3">
+      <c r="DK34" s="6">
         <f t="shared" si="43"/>
         <v>1437076.7003366675</v>
       </c>
-      <c r="DK33" s="3">
+      <c r="DL34" s="6">
         <f t="shared" si="43"/>
         <v>1465818.2343434009</v>
       </c>
-      <c r="DL33" s="3">
+      <c r="DM34" s="6">
         <f t="shared" si="43"/>
         <v>1495134.5990302691</v>
       </c>
-      <c r="DM33" s="3">
-        <f t="shared" ref="DM33:DS33" si="44">DL33*(1+$W$20)</f>
+      <c r="DN34" s="6">
+        <f t="shared" ref="DN34:DT34" si="44">DM34*(1+$X$21)</f>
         <v>1525037.2910108746</v>
       </c>
-      <c r="DN33" s="3">
+      <c r="DO34" s="6">
         <f t="shared" si="44"/>
         <v>1555538.0368310921</v>
       </c>
-      <c r="DO33" s="3">
+      <c r="DP34" s="6">
         <f t="shared" si="44"/>
         <v>1586648.797567714</v>
       </c>
-      <c r="DP33" s="3">
+      <c r="DQ34" s="6">
         <f t="shared" si="44"/>
         <v>1618381.7735190683</v>
       </c>
-      <c r="DQ33" s="3">
+      <c r="DR34" s="6">
         <f t="shared" si="44"/>
         <v>1650749.4089894497</v>
       </c>
-      <c r="DR33" s="3">
+      <c r="DS34" s="6">
         <f t="shared" si="44"/>
         <v>1683764.3971692387</v>
       </c>
-      <c r="DS33" s="3">
+      <c r="DT34" s="6">
         <f t="shared" si="44"/>
         <v>1717439.6851126235</v>
       </c>
     </row>
-    <row r="34" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="M34" s="7">
-        <f>M33/M4</f>
+    <row r="35" spans="2:124" x14ac:dyDescent="0.2">
+      <c r="N35" s="9">
+        <f>N34/N5</f>
         <v>0.32858727997175569</v>
       </c>
-      <c r="N34" s="7">
-        <f t="shared" ref="N34:O34" si="45">N33/N4</f>
+      <c r="O35" s="9">
+        <f t="shared" ref="O35:P35" si="45">O34/O5</f>
         <v>0.28065497959087371</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P35" s="9">
         <f t="shared" si="45"/>
         <v>0.30218013886962408</v>
       </c>
-      <c r="P34" s="7">
-        <f t="shared" ref="P34" si="46">P33/P4</f>
+      <c r="Q35" s="9">
+        <f t="shared" ref="Q35" si="46">Q34/Q5</f>
         <v>0.30780738263973578</v>
       </c>
-      <c r="Q34" s="7">
-        <f t="shared" ref="Q34" si="47">Q33/Q4</f>
+      <c r="R35" s="9">
+        <f t="shared" ref="R35" si="47">R34/R5</f>
         <v>0.30479597636939004</v>
       </c>
-      <c r="R34" s="7">
-        <f t="shared" ref="R34" si="48">R33/R4</f>
+      <c r="S35" s="9">
+        <f t="shared" ref="S35" si="48">S34/S5</f>
         <v>0.32258889182259792</v>
       </c>
-      <c r="S34" s="7">
-        <f t="shared" ref="S34" si="49">S33/S4</f>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35" si="49">T34/T5</f>
         <v>0.33868371686720128</v>
       </c>
-      <c r="T34" s="7">
-        <f t="shared" ref="T34" si="50">T33/T4</f>
+      <c r="U35" s="9">
+        <f t="shared" ref="U35" si="50">U34/U5</f>
         <v>0.35329295767660712</v>
       </c>
     </row>
-    <row r="35" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="1">
-        <f>G37-G39</f>
+    <row r="36" spans="2:124" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="1">
+        <f>H38-H40</f>
         <v>-50766</v>
       </c>
-      <c r="H35" s="1">
-        <f>G35+H16</f>
+      <c r="I36" s="1">
+        <f>H36+I17</f>
         <v>-50766</v>
       </c>
-      <c r="I35" s="1">
-        <f>H35+I16</f>
+      <c r="J36" s="1">
+        <f>I36+J17</f>
         <v>-50766</v>
       </c>
-      <c r="P35" s="1">
-        <f>I35</f>
+      <c r="Q36" s="1">
+        <f>J36</f>
         <v>-50766</v>
       </c>
-      <c r="Q35" s="1">
-        <f>P35+Q16</f>
+      <c r="R36" s="1">
+        <f>Q36+R17</f>
         <v>75423.406677314691</v>
       </c>
-      <c r="R35" s="1">
-        <f t="shared" ref="R35:T35" si="51">Q35+R16</f>
+      <c r="S36" s="1">
+        <f t="shared" ref="S36:U36" si="51">R36+S17</f>
         <v>232893.37468960602</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T36" s="1">
         <f t="shared" si="51"/>
         <v>429372.05513200385</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U36" s="1">
         <f t="shared" si="51"/>
         <v>674561.29656216514</v>
       </c>
     </row>
-    <row r="37" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="1">
+    <row r="38" spans="2:124" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
         <f>17482+54073</f>
         <v>71555</v>
       </c>
     </row>
-    <row r="39" spans="1:123" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="1">
+    <row r="40" spans="2:124" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
         <f>39722+24389+2537+2513+17254+35906</f>
         <v>122321</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Sheet1!A1" display="Main" xr:uid="{DA1959CE-4061-4CA1-B4C4-0C2C2C4229D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B7F9B1-DB90-403B-BF94-E14BFF7AD611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151866CF-F9CE-4189-9118-C324F88BFD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{8238CC19-5C58-4680-92E0-526DD4D78218}"/>
+    <workbookView xWindow="5835" yWindow="480" windowWidth="20805" windowHeight="14475" activeTab="1" xr2:uid="{8238CC19-5C58-4680-92E0-526DD4D78218}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -799,10 +799,10 @@
   <dimension ref="A1:DT41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -819,12 +819,12 @@
     <col min="125" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
@@ -889,7 +889,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -918,7 +918,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
         <v>81926.741925000009</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -986,7 +986,7 @@
         <v>669623.21257000009</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>751549.95449500007</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>17735.474124393215</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>195463.1967266709</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>538351.28364393592</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>29510</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>24456</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1206,8 +1206,9 @@
         <f t="shared" si="13"/>
         <v>188790.43271525868</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>349560.85092867725</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +1965,7 @@
       </c>
       <c r="X25" s="5">
         <f>NPV(X24,Q36:XFD36)+Main!I6-Main!I7</f>
-        <v>3297765.5606408142</v>
+        <v>3147066.7074977029</v>
       </c>
     </row>
     <row r="26" spans="2:118" x14ac:dyDescent="0.2">
@@ -2003,7 +2004,7 @@
       </c>
       <c r="X26" s="8">
         <f>X25/Main!I4</f>
-        <v>443.60687995219979</v>
+        <v>423.33526063120718</v>
       </c>
     </row>
     <row r="27" spans="2:118" x14ac:dyDescent="0.2">
@@ -2012,7 +2013,7 @@
       </c>
       <c r="X27" s="11">
         <f>X26/Main!I3-1</f>
-        <v>-0.18454617655845629</v>
+        <v>-0.22181018266322206</v>
       </c>
     </row>
     <row r="28" spans="2:118" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2219,20 +2220,20 @@
         <v>100000</v>
       </c>
       <c r="R35" s="8">
-        <f>Q35*1.1</f>
-        <v>110000.00000000001</v>
+        <f>Q35*1.05</f>
+        <v>105000</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" ref="S35:U35" si="33">R35*1.1</f>
-        <v>121000.00000000003</v>
+        <f t="shared" ref="S35:U35" si="33">R35*1.05</f>
+        <v>110250</v>
       </c>
       <c r="T35" s="8">
         <f t="shared" si="33"/>
-        <v>133100.00000000003</v>
+        <v>115762.5</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="33"/>
-        <v>146410.00000000006</v>
+        <v>121550.625</v>
       </c>
     </row>
     <row r="36" spans="2:124" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2257,431 +2258,431 @@
       </c>
       <c r="R36" s="5">
         <f t="shared" ref="R36" si="36">R34-R35</f>
-        <v>74522.417539973409</v>
+        <v>79522.417539973423</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" ref="S36" si="37">S34-S35</f>
-        <v>115419.15677354831</v>
+        <v>126169.15677354834</v>
       </c>
       <c r="T36" s="5">
         <f t="shared" ref="T36" si="38">T34-T35</f>
-        <v>171096.15070070108</v>
+        <v>188433.65070070111</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" ref="U36" si="39">U34-U35</f>
-        <v>246471.76921573892</v>
+        <f t="shared" ref="U36:V36" si="39">U34-U35</f>
+        <v>271331.14421573898</v>
       </c>
       <c r="V36" s="5">
-        <f>V19</f>
-        <v>293933.76807992323</v>
+        <f t="shared" ref="V36:BA36" si="40">U36*(1+$X$23)</f>
+        <v>274044.45565789635</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" ref="V36:BA36" si="40">V36*(1+$X$23)</f>
-        <v>296873.10576072248</v>
+        <f t="shared" si="40"/>
+        <v>276784.90021447535</v>
       </c>
       <c r="X36" s="5">
         <f t="shared" si="40"/>
-        <v>299841.8368183297</v>
+        <v>279552.74921662011</v>
       </c>
       <c r="Y36" s="5">
         <f t="shared" si="40"/>
-        <v>302840.25518651301</v>
+        <v>282348.27670878632</v>
       </c>
       <c r="Z36" s="5">
         <f t="shared" si="40"/>
-        <v>305868.65773837816</v>
+        <v>285171.75947587419</v>
       </c>
       <c r="AA36" s="5">
         <f t="shared" si="40"/>
-        <v>308927.34431576193</v>
+        <v>288023.47707063291</v>
       </c>
       <c r="AB36" s="5">
         <f t="shared" si="40"/>
-        <v>312016.61775891954</v>
+        <v>290903.71184133925</v>
       </c>
       <c r="AC36" s="5">
         <f t="shared" si="40"/>
-        <v>315136.78393650876</v>
+        <v>293812.74895975261</v>
       </c>
       <c r="AD36" s="5">
         <f t="shared" si="40"/>
-        <v>318288.15177587385</v>
+        <v>296750.87644935015</v>
       </c>
       <c r="AE36" s="5">
         <f t="shared" si="40"/>
-        <v>321471.03329363262</v>
+        <v>299718.38521384366</v>
       </c>
       <c r="AF36" s="5">
         <f t="shared" si="40"/>
-        <v>324685.74362656893</v>
+        <v>302715.56906598213</v>
       </c>
       <c r="AG36" s="5">
         <f t="shared" si="40"/>
-        <v>327932.60106283461</v>
+        <v>305742.72475664195</v>
       </c>
       <c r="AH36" s="5">
         <f t="shared" si="40"/>
-        <v>331211.92707346298</v>
+        <v>308800.15200420836</v>
       </c>
       <c r="AI36" s="5">
         <f t="shared" si="40"/>
-        <v>334524.04634419759</v>
+        <v>311888.15352425043</v>
       </c>
       <c r="AJ36" s="5">
         <f t="shared" si="40"/>
-        <v>337869.28680763958</v>
+        <v>315007.03505949292</v>
       </c>
       <c r="AK36" s="5">
         <f t="shared" si="40"/>
-        <v>341247.97967571596</v>
+        <v>318157.10541008785</v>
       </c>
       <c r="AL36" s="5">
         <f t="shared" si="40"/>
-        <v>344660.45947247313</v>
+        <v>321338.67646418873</v>
       </c>
       <c r="AM36" s="5">
         <f t="shared" si="40"/>
-        <v>348107.06406719785</v>
+        <v>324552.06322883064</v>
       </c>
       <c r="AN36" s="5">
         <f t="shared" si="40"/>
-        <v>351588.13470786985</v>
+        <v>327797.58386111894</v>
       </c>
       <c r="AO36" s="5">
         <f t="shared" si="40"/>
-        <v>355104.01605494856</v>
+        <v>331075.55969973013</v>
       </c>
       <c r="AP36" s="5">
         <f t="shared" si="40"/>
-        <v>358655.05621549807</v>
+        <v>334386.31529672747</v>
       </c>
       <c r="AQ36" s="5">
         <f t="shared" si="40"/>
-        <v>362241.60677765304</v>
+        <v>337730.17844969477</v>
       </c>
       <c r="AR36" s="5">
         <f t="shared" si="40"/>
-        <v>365864.0228454296</v>
+        <v>341107.48023419169</v>
       </c>
       <c r="AS36" s="5">
         <f t="shared" si="40"/>
-        <v>369522.66307388392</v>
+        <v>344518.55503653362</v>
       </c>
       <c r="AT36" s="5">
         <f t="shared" si="40"/>
-        <v>373217.88970462274</v>
+        <v>347963.74058689899</v>
       </c>
       <c r="AU36" s="5">
         <f t="shared" si="40"/>
-        <v>376950.06860166899</v>
+        <v>351443.37799276796</v>
       </c>
       <c r="AV36" s="5">
         <f t="shared" si="40"/>
-        <v>380719.56928768568</v>
+        <v>354957.81177269563</v>
       </c>
       <c r="AW36" s="5">
         <f t="shared" si="40"/>
-        <v>384526.76498056256</v>
+        <v>358507.38989042258</v>
       </c>
       <c r="AX36" s="5">
         <f t="shared" si="40"/>
-        <v>388372.03263036819</v>
+        <v>362092.46378932678</v>
       </c>
       <c r="AY36" s="5">
         <f t="shared" si="40"/>
-        <v>392255.75295667187</v>
+        <v>365713.38842722005</v>
       </c>
       <c r="AZ36" s="5">
         <f t="shared" si="40"/>
-        <v>396178.31048623857</v>
+        <v>369370.52231149224</v>
       </c>
       <c r="BA36" s="5">
         <f t="shared" si="40"/>
-        <v>400140.09359110094</v>
+        <v>373064.22753460717</v>
       </c>
       <c r="BB36" s="5">
         <f t="shared" ref="BB36:CG36" si="41">BA36*(1+$X$23)</f>
-        <v>404141.49452701194</v>
+        <v>376794.86980995326</v>
       </c>
       <c r="BC36" s="5">
         <f t="shared" si="41"/>
-        <v>408182.90947228204</v>
+        <v>380562.81850805279</v>
       </c>
       <c r="BD36" s="5">
         <f t="shared" si="41"/>
-        <v>412264.73856700485</v>
+        <v>384368.44669313333</v>
       </c>
       <c r="BE36" s="5">
         <f t="shared" si="41"/>
-        <v>416387.3859526749</v>
+        <v>388212.13116006466</v>
       </c>
       <c r="BF36" s="5">
         <f t="shared" si="41"/>
-        <v>420551.25981220166</v>
+        <v>392094.25247166533</v>
       </c>
       <c r="BG36" s="5">
         <f t="shared" si="41"/>
-        <v>424756.77241032367</v>
+        <v>396015.19499638199</v>
       </c>
       <c r="BH36" s="5">
         <f t="shared" si="41"/>
-        <v>429004.34013442689</v>
+        <v>399975.34694634582</v>
       </c>
       <c r="BI36" s="5">
         <f t="shared" si="41"/>
-        <v>433294.38353577117</v>
+        <v>403975.10041580925</v>
       </c>
       <c r="BJ36" s="5">
         <f t="shared" si="41"/>
-        <v>437627.32737112889</v>
+        <v>408014.85141996737</v>
       </c>
       <c r="BK36" s="5">
         <f t="shared" si="41"/>
-        <v>442003.60064484016</v>
+        <v>412094.99993416702</v>
       </c>
       <c r="BL36" s="5">
         <f t="shared" si="41"/>
-        <v>446423.63665128854</v>
+        <v>416215.9499335087</v>
       </c>
       <c r="BM36" s="5">
         <f t="shared" si="41"/>
-        <v>450887.87301780144</v>
+        <v>420378.1094328438</v>
       </c>
       <c r="BN36" s="5">
         <f t="shared" si="41"/>
-        <v>455396.75174797943</v>
+        <v>424581.89052717225</v>
       </c>
       <c r="BO36" s="5">
         <f t="shared" si="41"/>
-        <v>459950.71926545922</v>
+        <v>428827.70943244395</v>
       </c>
       <c r="BP36" s="5">
         <f t="shared" si="41"/>
-        <v>464550.22645811382</v>
+        <v>433115.98652676842</v>
       </c>
       <c r="BQ36" s="5">
         <f t="shared" si="41"/>
-        <v>469195.72872269497</v>
+        <v>437447.14639203611</v>
       </c>
       <c r="BR36" s="5">
         <f t="shared" si="41"/>
-        <v>473887.68600992195</v>
+        <v>441821.61785595649</v>
       </c>
       <c r="BS36" s="5">
         <f t="shared" si="41"/>
-        <v>478626.56287002115</v>
+        <v>446239.83403451607</v>
       </c>
       <c r="BT36" s="5">
         <f t="shared" si="41"/>
-        <v>483412.82849872136</v>
+        <v>450702.23237486125</v>
       </c>
       <c r="BU36" s="5">
         <f t="shared" si="41"/>
-        <v>488246.95678370859</v>
+        <v>455209.25469860988</v>
       </c>
       <c r="BV36" s="5">
         <f t="shared" si="41"/>
-        <v>493129.42635154567</v>
+        <v>459761.347245596</v>
       </c>
       <c r="BW36" s="5">
         <f t="shared" si="41"/>
-        <v>498060.72061506112</v>
+        <v>464358.96071805194</v>
       </c>
       <c r="BX36" s="5">
         <f t="shared" si="41"/>
-        <v>503041.32782121171</v>
+        <v>469002.55032523244</v>
       </c>
       <c r="BY36" s="5">
         <f t="shared" si="41"/>
-        <v>508071.74109942385</v>
+        <v>473692.57582848478</v>
       </c>
       <c r="BZ36" s="5">
         <f t="shared" si="41"/>
-        <v>513152.45851041807</v>
+        <v>478429.50158676965</v>
       </c>
       <c r="CA36" s="5">
         <f t="shared" si="41"/>
-        <v>518283.98309552227</v>
+        <v>483213.79660263733</v>
       </c>
       <c r="CB36" s="5">
         <f t="shared" si="41"/>
-        <v>523466.82292647747</v>
+        <v>488045.93456866371</v>
       </c>
       <c r="CC36" s="5">
         <f t="shared" si="41"/>
-        <v>528701.4911557422</v>
+        <v>492926.39391435037</v>
       </c>
       <c r="CD36" s="5">
         <f t="shared" si="41"/>
-        <v>533988.50606729963</v>
+        <v>497855.65785349387</v>
       </c>
       <c r="CE36" s="5">
         <f t="shared" si="41"/>
-        <v>539328.39112797263</v>
+        <v>502834.21443202882</v>
       </c>
       <c r="CF36" s="5">
         <f t="shared" si="41"/>
-        <v>544721.67503925238</v>
+        <v>507862.55657634913</v>
       </c>
       <c r="CG36" s="5">
         <f t="shared" si="41"/>
-        <v>550168.89178964496</v>
+        <v>512941.18214211264</v>
       </c>
       <c r="CH36" s="5">
         <f t="shared" ref="CH36:DM36" si="42">CG36*(1+$X$23)</f>
-        <v>555670.58070754143</v>
+        <v>518070.59396353376</v>
       </c>
       <c r="CI36" s="5">
         <f t="shared" si="42"/>
-        <v>561227.2865146168</v>
+        <v>523251.2999031691</v>
       </c>
       <c r="CJ36" s="5">
         <f t="shared" si="42"/>
-        <v>566839.55937976297</v>
+        <v>528483.81290220085</v>
       </c>
       <c r="CK36" s="5">
         <f t="shared" si="42"/>
-        <v>572507.95497356064</v>
+        <v>533768.65103122289</v>
       </c>
       <c r="CL36" s="5">
         <f t="shared" si="42"/>
-        <v>578233.03452329629</v>
+        <v>539106.33754153515</v>
       </c>
       <c r="CM36" s="5">
         <f t="shared" si="42"/>
-        <v>584015.36486852926</v>
+        <v>544497.40091695054</v>
       </c>
       <c r="CN36" s="5">
         <f t="shared" si="42"/>
-        <v>589855.51851721457</v>
+        <v>549942.37492612004</v>
       </c>
       <c r="CO36" s="5">
         <f t="shared" si="42"/>
-        <v>595754.0737023867</v>
+        <v>555441.79867538123</v>
       </c>
       <c r="CP36" s="5">
         <f t="shared" si="42"/>
-        <v>601711.61443941062</v>
+        <v>560996.21666213509</v>
       </c>
       <c r="CQ36" s="5">
         <f t="shared" si="42"/>
-        <v>607728.73058380478</v>
+        <v>566606.17882875644</v>
       </c>
       <c r="CR36" s="5">
         <f t="shared" si="42"/>
-        <v>613806.01788964286</v>
+        <v>572272.24061704404</v>
       </c>
       <c r="CS36" s="5">
         <f t="shared" si="42"/>
-        <v>619944.07806853927</v>
+        <v>577994.96302321448</v>
       </c>
       <c r="CT36" s="5">
         <f t="shared" si="42"/>
-        <v>626143.51884922467</v>
+        <v>583774.91265344666</v>
       </c>
       <c r="CU36" s="5">
         <f t="shared" si="42"/>
-        <v>632404.95403771696</v>
+        <v>589612.66177998111</v>
       </c>
       <c r="CV36" s="5">
         <f t="shared" si="42"/>
-        <v>638729.00357809418</v>
+        <v>595508.78839778097</v>
       </c>
       <c r="CW36" s="5">
         <f t="shared" si="42"/>
-        <v>645116.29361387517</v>
+        <v>601463.87628175877</v>
       </c>
       <c r="CX36" s="5">
         <f t="shared" si="42"/>
-        <v>651567.45655001397</v>
+        <v>607478.51504457637</v>
       </c>
       <c r="CY36" s="5">
         <f t="shared" si="42"/>
-        <v>658083.13111551409</v>
+        <v>613553.30019502214</v>
       </c>
       <c r="CZ36" s="5">
         <f t="shared" si="42"/>
-        <v>664663.9624266692</v>
+        <v>619688.83319697238</v>
       </c>
       <c r="DA36" s="5">
         <f t="shared" si="42"/>
-        <v>671310.60205093585</v>
+        <v>625885.72152894211</v>
       </c>
       <c r="DB36" s="5">
         <f t="shared" si="42"/>
-        <v>678023.70807144523</v>
+        <v>632144.57874423149</v>
       </c>
       <c r="DC36" s="5">
         <f t="shared" si="42"/>
-        <v>684803.94515215966</v>
+        <v>638466.02453167376</v>
       </c>
       <c r="DD36" s="5">
         <f t="shared" si="42"/>
-        <v>691651.98460368125</v>
+        <v>644850.68477699044</v>
       </c>
       <c r="DE36" s="5">
         <f t="shared" si="42"/>
-        <v>698568.50444971805</v>
+        <v>651299.19162476039</v>
       </c>
       <c r="DF36" s="5">
         <f t="shared" si="42"/>
-        <v>705554.18949421518</v>
+        <v>657812.18354100804</v>
       </c>
       <c r="DG36" s="5">
         <f t="shared" si="42"/>
-        <v>712609.73138915736</v>
+        <v>664390.30537641817</v>
       </c>
       <c r="DH36" s="5">
         <f t="shared" si="42"/>
-        <v>719735.82870304899</v>
+        <v>671034.20843018231</v>
       </c>
       <c r="DI36" s="5">
         <f t="shared" si="42"/>
-        <v>726933.18699007947</v>
+        <v>677744.55051448417</v>
       </c>
       <c r="DJ36" s="5">
         <f t="shared" si="42"/>
-        <v>734202.51885998028</v>
+        <v>684521.99601962906</v>
       </c>
       <c r="DK36" s="5">
         <f t="shared" si="42"/>
-        <v>741544.54404858011</v>
+        <v>691367.21597982536</v>
       </c>
       <c r="DL36" s="5">
         <f t="shared" si="42"/>
-        <v>748959.98948906595</v>
+        <v>698280.88813962357</v>
       </c>
       <c r="DM36" s="5">
         <f t="shared" si="42"/>
-        <v>756449.58938395663</v>
+        <v>705263.69702101976</v>
       </c>
       <c r="DN36" s="5">
         <f t="shared" ref="DN36:DT36" si="43">DM36*(1+$X$23)</f>
-        <v>764014.08527779626</v>
+        <v>712316.33399123</v>
       </c>
       <c r="DO36" s="5">
         <f t="shared" si="43"/>
-        <v>771654.22613057424</v>
+        <v>719439.49733114231</v>
       </c>
       <c r="DP36" s="5">
         <f t="shared" si="43"/>
-        <v>779370.76839187997</v>
+        <v>726633.89230445377</v>
       </c>
       <c r="DQ36" s="5">
         <f t="shared" si="43"/>
-        <v>787164.47607579874</v>
+        <v>733900.23122749827</v>
       </c>
       <c r="DR36" s="5">
         <f t="shared" si="43"/>
-        <v>795036.12083655677</v>
+        <v>741239.23353977327</v>
       </c>
       <c r="DS36" s="5">
         <f t="shared" si="43"/>
-        <v>802986.4820449223</v>
+        <v>748651.62587517104</v>
       </c>
       <c r="DT36" s="5">
         <f t="shared" si="43"/>
-        <v>811016.34686537157</v>
+        <v>756138.14213392278</v>
       </c>
     </row>
     <row r="37" spans="2:124" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
